--- a/biology/Botanique/Preussiella_kamerunensis/Preussiella_kamerunensis.xlsx
+++ b/biology/Botanique/Preussiella_kamerunensis/Preussiella_kamerunensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Preussiella kamerunensis Gilg [2] est une espèce de plantes de la famille des Melastomataceae, selon la classification phylogénétique. 
-Son nom fait référence au botaniste allemand Paul Rudolph Preuss, à l'origine du jardin botanique de Limbé (Cameroun)[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Preussiella kamerunensis Gilg  est une espèce de plantes de la famille des Melastomataceae, selon la classification phylogénétique. 
+Son nom fait référence au botaniste allemand Paul Rudolph Preuss, à l'origine du jardin botanique de Limbé (Cameroun).
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette plante est une épiphyte [4] ligneuse qui mesure environ 80 cm. Elle se développe donc sur d'autres plantes sans les parasiter ou le long de falaises bien exposées.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette plante est une épiphyte  ligneuse qui mesure environ 80 cm. Elle se développe donc sur d'autres plantes sans les parasiter ou le long de falaises bien exposées.
 On retrouve cette espèce, décrite au Cameroun, en Afrique de l'Ouest et Centrale. 
 Elle se caractérise par la disposition opposée de chaque côté des tiges de ses feuilles épaisses .  
 </t>
@@ -545,7 +559,9 @@
           <t>Utilités</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Comme la  preussiella Kamerunensis est une plante à fleurs , elles est généralement  utilisée  pour l'ornementation   et l'embellissement botanique .
 </t>
